--- a/崔忠强/Microarch流程设计器.xlsx
+++ b/崔忠强/Microarch流程设计器.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>一级</t>
   </si>
@@ -74,12 +74,24 @@
     <t>编辑器工具包</t>
   </si>
   <si>
+    <t>editor.html</t>
+  </si>
+  <si>
+    <t>编辑器页面（ng-dblclick="extendShape()"）</t>
+  </si>
+  <si>
     <t>stencil-controller.js</t>
   </si>
   <si>
     <t>模板控制器（页面布局、活动节点）</t>
   </si>
   <si>
+    <t>toolbar-controller.js</t>
+  </si>
+  <si>
+    <t>工具栏控制器（ctrl+c,ctrl+v）</t>
+  </si>
+  <si>
     <t>configuration</t>
   </si>
   <si>
@@ -111,6 +123,15 @@
   </si>
   <si>
     <t>popups</t>
+  </si>
+  <si>
+    <t>自定义的扩展页面，弹出窗页面</t>
+  </si>
+  <si>
+    <t>extend-usertask-shape.html</t>
+  </si>
+  <si>
+    <t>用户任务弹出页面</t>
   </si>
   <si>
     <t>editor</t>
@@ -127,9 +148,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -141,9 +162,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,9 +177,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,6 +215,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -181,14 +244,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,31 +260,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,60 +282,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,61 +315,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,121 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,10 +517,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -502,8 +527,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,6 +548,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -534,6 +574,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,39 +612,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -593,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,146 +632,152 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1094,14 +1127,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1129,10 +1162,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
@@ -1142,10 +1176,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="4" spans="2:3">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
@@ -1164,10 +1199,10 @@
       </c>
     </row>
     <row r="8" spans="3:4">
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1175,7 +1210,7 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1183,7 +1218,7 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1191,7 +1226,7 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1199,58 +1234,86 @@
       <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="5:6">
-      <c r="E13" t="s">
+    <row r="13" spans="4:5">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="5:6">
       <c r="E15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="6:7">
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
-      <c r="F17" t="s">
+    <row r="17" spans="5:6">
+      <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="4:4">
-      <c r="D18" t="s">
+    <row r="18" spans="6:7">
+      <c r="F18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" t="s">
+      <c r="G18" t="s">
         <v>31</v>
       </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" t="s">
+      <c r="G19" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
